--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_21-35.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_21-35.xlsx
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
   </si>
   <si>
     <t>SPASMOPYRALGIN 30 TAB</t>
@@ -3034,13 +3037,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>21</v>
+        <v>-47</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -3060,17 +3063,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3086,17 +3089,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3112,17 +3115,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3138,17 +3141,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3164,17 +3167,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3190,17 +3193,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3216,17 +3219,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3234,7 +3237,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3242,17 +3245,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3268,17 +3271,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3294,17 +3297,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3326,11 +3329,11 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3346,17 +3349,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3372,17 +3375,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3398,17 +3401,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>7.5</v>
+        <v>66</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3416,7 +3419,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3424,17 +3427,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>48</v>
+        <v>7.5</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3456,11 +3459,11 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3482,7 +3485,7 @@
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3502,17 +3505,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3520,7 +3523,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3528,13 +3531,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3546,7 +3549,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3554,13 +3557,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3580,13 +3583,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3606,17 +3609,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3624,7 +3627,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3632,17 +3635,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>144</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3650,7 +3653,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3658,17 +3661,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3676,7 +3679,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3690,11 +3693,11 @@
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>31</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3710,7 +3713,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
@@ -3720,7 +3723,7 @@
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3736,13 +3739,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
@@ -3754,7 +3757,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3762,17 +3765,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3788,17 +3791,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3820,7 +3823,7 @@
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3846,7 +3849,7 @@
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
@@ -3866,13 +3869,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
@@ -3892,17 +3895,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3918,17 +3921,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3944,51 +3947,77 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="115" ht="26.25" customHeight="1">
-      <c r="K115" s="10">
-        <v>8618.4799999999996</v>
-      </c>
-      <c r="L115" s="10"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="10"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="11">
+    <row r="115" ht="25.5" customHeight="1">
+      <c r="A115" s="6">
+        <v>112</v>
+      </c>
+      <c t="s" r="B115" s="7">
+        <v>160</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c t="s" r="H115" s="8">
         <v>161</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c t="s" r="F116" s="12">
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="9">
+        <v>45</v>
+      </c>
+      <c r="M115" s="9"/>
+      <c t="s" r="N115" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="K116" s="10">
+        <v>8571.4799999999996</v>
+      </c>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="11">
         <v>162</v>
       </c>
-      <c r="G116" s="12"/>
-      <c r="H116" s="13"/>
-      <c t="s" r="I116" s="14">
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c t="s" r="F117" s="12">
         <v>163</v>
       </c>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
-      <c r="L116" s="14"/>
-      <c r="M116" s="14"/>
-      <c r="N116" s="14"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="13"/>
+      <c t="s" r="I117" s="14">
+        <v>164</v>
+      </c>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="14"/>
+      <c r="M117" s="14"/>
+      <c r="N117" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="344">
+  <mergeCells count="347">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4329,10 +4358,13 @@
     <mergeCell ref="B114:G114"/>
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
-    <mergeCell ref="K115:N115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="I116:N116"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="K116:N116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="I117:N117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
